--- a/data/scheduling_DNN/predict/0.1/result26.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result26.xlsx
@@ -570,10 +570,10 @@
         <v>1.038054943084717</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.5300297141075134</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3152989447116852</v>
+        <v>0.2580896317958832</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.005362033843994</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.8958428502082825</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3000876605510712</v>
+        <v>0.01199445128440857</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8896949291229248</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.5107998251914978</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06051021814346313</v>
+        <v>0.1435614973306656</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8672130107879639</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.8836469054222107</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05835583433508873</v>
+        <v>0.0002700728946365416</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8661949634552002</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.4945536851882935</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1852810084819794</v>
+        <v>0.1381172388792038</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8650298118591309</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.5831358432769775</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08768072724342346</v>
+        <v>0.07946421205997467</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8643310070037842</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.4938331246376038</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1653539091348648</v>
+        <v>0.1372686773538589</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.872783899307251</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.4863752126693726</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03522145748138428</v>
+        <v>0.1493116766214371</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8697309494018555</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.5099096298217773</v>
       </c>
       <c r="W10" t="n">
-        <v>0.24142786860466</v>
+        <v>0.1294713765382767</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8710019588470459</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.8731464743614197</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2425165474414825</v>
+        <v>4.598946816258831e-06</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.859788179397583</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.8947536945343018</v>
       </c>
       <c r="W12" t="n">
-        <v>0.12859046459198</v>
+        <v>0.001222587190568447</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9174680709838867</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.5297687649726868</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2318005859851837</v>
+        <v>0.150310754776001</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8719279766082764</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.9218001365661621</v>
       </c>
       <c r="W14" t="n">
-        <v>0.09394759684801102</v>
+        <v>0.002487232442945242</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8938601016998291</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.4845597743988037</v>
       </c>
       <c r="W15" t="n">
-        <v>0.07551153749227524</v>
+        <v>0.1675267517566681</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8811089992523193</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.4824133515357971</v>
       </c>
       <c r="W16" t="n">
-        <v>0.155075341463089</v>
+        <v>0.158958226442337</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9653270244598389</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.5822144746780396</v>
       </c>
       <c r="W17" t="n">
-        <v>0.07632862031459808</v>
+        <v>0.1467752307653427</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8880939483642578</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.4685560464859009</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0713350772857666</v>
+        <v>0.1760120540857315</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9049811363220215</v>
       </c>
       <c r="V19" t="n">
-        <v>0.476378470659256</v>
+        <v>0.5298168063163757</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1837002485990524</v>
+        <v>0.1407482773065567</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8870100975036621</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.5025092363357544</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2033305019140244</v>
+        <v>0.1478409171104431</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9321691989898682</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.5596983432769775</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2174738645553589</v>
+        <v>0.1387345343828201</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5311059951782227</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.5837270617485046</v>
       </c>
       <c r="W22" t="n">
-        <v>0.003064480843022466</v>
+        <v>0.002768976613879204</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5254261493682861</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.4952126145362854</v>
       </c>
       <c r="W23" t="n">
-        <v>0.08570019155740738</v>
+        <v>0.0009128577075898647</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5233919620513916</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.5023888945579529</v>
       </c>
       <c r="W24" t="n">
-        <v>0.007682183291763067</v>
+        <v>0.0004411288537085056</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5329890251159668</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.4692056775093079</v>
       </c>
       <c r="W25" t="n">
-        <v>0.003872519824653864</v>
+        <v>0.004068315494805574</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5776100158691406</v>
       </c>
       <c r="V26" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.5296950340270996</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05501566082239151</v>
+        <v>0.002295845421031117</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5196490287780762</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.4935179948806763</v>
       </c>
       <c r="W27" t="n">
-        <v>0.00113271432928741</v>
+        <v>0.0006828309269621968</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5191922187805176</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.5299987196922302</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01105506531894207</v>
+        <v>0.000116780458483845</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5221049785614014</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.5297348499298096</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02014017850160599</v>
+        <v>5.821493687108159e-05</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.536506175994873</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.9189702272415161</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01866239868104458</v>
+        <v>0.1462787538766861</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5156848430633545</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.4768904447555542</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0001466808462282643</v>
+        <v>0.001505005289800465</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5538492202758789</v>
       </c>
       <c r="V32" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.4696847796440125</v>
       </c>
       <c r="W32" t="n">
-        <v>0.06662774831056595</v>
+        <v>0.007083653006702662</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5185189247131348</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.9565123915672302</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01809012889862061</v>
+        <v>0.1918382793664932</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5180239677429199</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.5085646510124207</v>
       </c>
       <c r="W34" t="n">
-        <v>0.006779910065233707</v>
+        <v>8.947867172537372e-05</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5295071601867676</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.5814816355705261</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01380105596035719</v>
+        <v>0.002701346063986421</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5413119792938232</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.9125674366950989</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01108624041080475</v>
+        <v>0.1378306150436401</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5806999206542969</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.5319868326187134</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01491820625960827</v>
+        <v>0.002372964983806014</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.530972957611084</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.5106170773506165</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0004954788601025939</v>
+        <v>0.0004143618571106344</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5232861042022705</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.9637370705604553</v>
       </c>
       <c r="W39" t="n">
-        <v>0.00045559968566522</v>
+        <v>0.1939970552921295</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5136921405792236</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.5028631091117859</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01251224149018526</v>
+        <v>0.0001172679258161224</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5196199417114258</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.5109882950782776</v>
       </c>
       <c r="W41" t="n">
-        <v>0.006941123399883509</v>
+        <v>7.450532575603575e-05</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4109408855438232</v>
       </c>
       <c r="V42" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.487318217754364</v>
       </c>
       <c r="W42" t="n">
-        <v>0.001019821735098958</v>
+        <v>0.005833496805280447</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4230740070343018</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.8797389268875122</v>
       </c>
       <c r="W43" t="n">
-        <v>0.04451505094766617</v>
+        <v>0.2085428535938263</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3879730701446533</v>
       </c>
       <c r="V44" t="n">
-        <v>0.473930835723877</v>
+        <v>0.5130237936973572</v>
       </c>
       <c r="W44" t="n">
-        <v>0.007388737518340349</v>
+        <v>0.01563768275082111</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3914089202880859</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.5821319222450256</v>
       </c>
       <c r="W45" t="n">
-        <v>0.004051817115396261</v>
+        <v>0.0363752618432045</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.38749098777771</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.5319178104400635</v>
       </c>
       <c r="W46" t="n">
-        <v>0.03268241882324219</v>
+        <v>0.02085910737514496</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4112300872802734</v>
       </c>
       <c r="V47" t="n">
-        <v>0.475897878408432</v>
+        <v>0.5821864604949951</v>
       </c>
       <c r="W47" t="n">
-        <v>0.004181923344731331</v>
+        <v>0.02922608144581318</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3883669376373291</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.5821988582611084</v>
       </c>
       <c r="W48" t="n">
-        <v>0.002271546050906181</v>
+        <v>0.03757081180810928</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3907198905944824</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.917647659778595</v>
       </c>
       <c r="W49" t="n">
-        <v>0.03192371129989624</v>
+        <v>0.2776528596878052</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3894729614257812</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.4929972887039185</v>
       </c>
       <c r="W50" t="n">
-        <v>0.002167163882404566</v>
+        <v>0.01071728672832251</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.394287109375</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.5551959872245789</v>
       </c>
       <c r="W51" t="n">
-        <v>0.001741779851727188</v>
+        <v>0.02589166723191738</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3914408683776855</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.4803187847137451</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0001461003121221438</v>
+        <v>0.007899284362792969</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.388200044631958</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.4697248935699463</v>
       </c>
       <c r="W53" t="n">
-        <v>0.002248870674520731</v>
+        <v>0.006646301131695509</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3909101486206055</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.4638616442680359</v>
       </c>
       <c r="W54" t="n">
-        <v>7.543712854385376e-08</v>
+        <v>0.005321920849382877</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4127328395843506</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.8963536620140076</v>
       </c>
       <c r="W55" t="n">
-        <v>0.06785476207733154</v>
+        <v>0.233889102935791</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3881230354309082</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.4700360894203186</v>
       </c>
       <c r="W56" t="n">
-        <v>0.004846261348575354</v>
+        <v>0.006709748413413763</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3881998062133789</v>
       </c>
       <c r="V57" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.5541917085647583</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1836561262607574</v>
+        <v>0.02755331248044968</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3889720439910889</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.483842134475708</v>
       </c>
       <c r="W58" t="n">
-        <v>0.007093769963830709</v>
+        <v>0.009000333957374096</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3899860382080078</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.4922836422920227</v>
       </c>
       <c r="W59" t="n">
-        <v>0.01307185180485249</v>
+        <v>0.0104647995904088</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3852028846740723</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.5814570188522339</v>
       </c>
       <c r="W60" t="n">
-        <v>0.02812238782644272</v>
+        <v>0.03851568698883057</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4450869560241699</v>
       </c>
       <c r="V61" t="n">
-        <v>0.505409836769104</v>
+        <v>0.4771850109100342</v>
       </c>
       <c r="W61" t="n">
-        <v>0.003638849826529622</v>
+        <v>0.001030285144224763</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8725321292877197</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.9295396208763123</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1902360320091248</v>
+        <v>0.003249854082241654</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8704440593719482</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.5830816626548767</v>
       </c>
       <c r="W63" t="n">
-        <v>0.04551692306995392</v>
+        <v>0.08257714658975601</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8643620014190674</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.4797046780586243</v>
       </c>
       <c r="W64" t="n">
-        <v>0.06124984845519066</v>
+        <v>0.1479612588882446</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9168641567230225</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.4820722341537476</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2108994275331497</v>
+        <v>0.1890440136194229</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8650810718536377</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.5105471014976501</v>
       </c>
       <c r="W66" t="n">
-        <v>0.05809924378991127</v>
+        <v>0.1256943345069885</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8593599796295166</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.4976856112480164</v>
       </c>
       <c r="W67" t="n">
-        <v>0.05681897699832916</v>
+        <v>0.1308083534240723</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.867455005645752</v>
       </c>
       <c r="V68" t="n">
-        <v>0.436014860868454</v>
+        <v>0.5138642191886902</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1861405968666077</v>
+        <v>0.1250264495611191</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9173638820648193</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.4965846538543701</v>
       </c>
       <c r="W69" t="n">
-        <v>0.24701227247715</v>
+        <v>0.1770551651716232</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8599610328674316</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.4815298318862915</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1746638268232346</v>
+        <v>0.1432101726531982</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8620281219482422</v>
       </c>
       <c r="V71" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.5090023279190063</v>
       </c>
       <c r="W71" t="n">
-        <v>0.001870425418019295</v>
+        <v>0.1246272101998329</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8656129837036133</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.9064767956733704</v>
       </c>
       <c r="W72" t="n">
-        <v>0.09917052090167999</v>
+        <v>0.001669851131737232</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.9109210968017578</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.4818923473358154</v>
       </c>
       <c r="W73" t="n">
-        <v>0.207669124007225</v>
+        <v>0.1840656697750092</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8684518337249756</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.5545479655265808</v>
       </c>
       <c r="W74" t="n">
-        <v>0.10031458735466</v>
+        <v>0.09853564202785492</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8619759082794189</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.9106947779655457</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1297422349452972</v>
+        <v>0.002373528201133013</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8704941272735596</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.4844582080841064</v>
       </c>
       <c r="W76" t="n">
-        <v>0.09947174787521362</v>
+        <v>0.1490237265825272</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9223849773406982</v>
       </c>
       <c r="V77" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.5133947730064392</v>
       </c>
       <c r="W77" t="n">
-        <v>0.03636651113629341</v>
+        <v>0.1672729849815369</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8620650768280029</v>
       </c>
       <c r="V78" t="n">
-        <v>0.551541268825531</v>
+        <v>0.893547534942627</v>
       </c>
       <c r="W78" t="n">
-        <v>0.09642503410577774</v>
+        <v>0.0009911451488733292</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8583550453186035</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.4932833313941956</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2266041338443756</v>
+        <v>0.1332773566246033</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8574569225311279</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.5181585550308228</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1598377078771591</v>
+        <v>0.1151233837008476</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.909649133682251</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.4978275895118713</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2124549746513367</v>
+        <v>0.1695969849824905</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5617918968200684</v>
       </c>
       <c r="V82" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.9036765694618225</v>
       </c>
       <c r="W82" t="n">
-        <v>0.03122322633862495</v>
+        <v>0.116885133087635</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5696160793304443</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.9313735961914062</v>
       </c>
       <c r="W83" t="n">
-        <v>0.00827331468462944</v>
+        <v>0.1308684945106506</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5143921375274658</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.5773167014122009</v>
       </c>
       <c r="W84" t="n">
-        <v>0.002955842530354857</v>
+        <v>0.003959500696510077</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5340540409088135</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.9175828099250793</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0009065942722372711</v>
+        <v>0.1470943093299866</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5678441524505615</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.5168007016181946</v>
       </c>
       <c r="W86" t="n">
-        <v>0.03159378841519356</v>
+        <v>0.002605433808639646</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5165019035339355</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.4804877638816833</v>
       </c>
       <c r="W87" t="n">
-        <v>9.496970596956089e-05</v>
+        <v>0.001297018257901073</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5155718326568604</v>
       </c>
       <c r="V88" t="n">
-        <v>0.56818687915802</v>
+        <v>0.8926172852516174</v>
       </c>
       <c r="W88" t="n">
-        <v>0.002768343081697822</v>
+        <v>0.1421632766723633</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5178980827331543</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.5980606079101562</v>
       </c>
       <c r="W89" t="n">
-        <v>0.002687398809939623</v>
+        <v>0.006426030304282904</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5153250694274902</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.864935576915741</v>
       </c>
       <c r="W90" t="n">
-        <v>0.006288629490882158</v>
+        <v>0.1222275048494339</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5193648338317871</v>
       </c>
       <c r="V91" t="n">
-        <v>0.473088413476944</v>
+        <v>0.874458909034729</v>
       </c>
       <c r="W91" t="n">
-        <v>0.002141507109627128</v>
+        <v>0.1260918080806732</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.519636869430542</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.4871355295181274</v>
       </c>
       <c r="W92" t="n">
-        <v>0.00315688899718225</v>
+        <v>0.001056337147019804</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5147991180419922</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.4691813588142395</v>
       </c>
       <c r="W93" t="n">
-        <v>0.00280119339004159</v>
+        <v>0.00208097998984158</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5171439647674561</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.9267298579216003</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01997248455882072</v>
+        <v>0.1677606105804443</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5130758285522461</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.9207649827003479</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0002845956187229604</v>
+        <v>0.1662104427814484</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5142250061035156</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.9207023978233337</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01213301811367273</v>
+        <v>0.1652238667011261</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5669159889221191</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.4808641076087952</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01234039291739464</v>
+        <v>0.007404926232993603</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.530346155166626</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.4808620810508728</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0004480284405872226</v>
+        <v>0.002448673592880368</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5177829265594482</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.5267903804779053</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0008779125055298209</v>
+        <v>8.113422518363222e-05</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5152218341827393</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.9238708019256592</v>
       </c>
       <c r="W100" t="n">
-        <v>0.001357103697955608</v>
+        <v>0.1669939756393433</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.515596866607666</v>
       </c>
       <c r="V101" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.4819563627243042</v>
       </c>
       <c r="W101" t="n">
-        <v>0.09053563326597214</v>
+        <v>0.001131683471612632</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.401155948638916</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.8942078351974487</v>
       </c>
       <c r="W102" t="n">
-        <v>0.07999004423618317</v>
+        <v>0.2431001663208008</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3949530124664307</v>
       </c>
       <c r="V103" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.4925627708435059</v>
       </c>
       <c r="W103" t="n">
-        <v>0.1776155978441238</v>
+        <v>0.009527664631605148</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4156339168548584</v>
       </c>
       <c r="V104" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.94842129945755</v>
       </c>
       <c r="W104" t="n">
-        <v>0.1608842015266418</v>
+        <v>0.2838623821735382</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4135589599609375</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.8952447772026062</v>
       </c>
       <c r="W105" t="n">
-        <v>0.04417990893125534</v>
+        <v>0.232021227478981</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3867590427398682</v>
       </c>
       <c r="V106" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.4895707964897156</v>
       </c>
       <c r="W106" t="n">
-        <v>0.122558020055294</v>
+        <v>0.01057025697082281</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3844408988952637</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.5808594822883606</v>
       </c>
       <c r="W107" t="n">
-        <v>0.005339907016605139</v>
+        <v>0.03858026117086411</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3857021331787109</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.9331156611442566</v>
       </c>
       <c r="W108" t="n">
-        <v>0.05685251578688622</v>
+        <v>0.2996615767478943</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3960518836975098</v>
       </c>
       <c r="V109" t="n">
-        <v>0.561543881893158</v>
+        <v>0.8800837397575378</v>
       </c>
       <c r="W109" t="n">
-        <v>0.02738760225474834</v>
+        <v>0.2342868447303772</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3882601261138916</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.5829176306724548</v>
       </c>
       <c r="W110" t="n">
-        <v>0.02701099216938019</v>
+        <v>0.03789154440164566</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3904581069946289</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.4833667278289795</v>
       </c>
       <c r="W111" t="n">
-        <v>0.06407948583364487</v>
+        <v>0.008632011711597443</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4048671722412109</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.4825465679168701</v>
       </c>
       <c r="W112" t="n">
-        <v>0.05627923458814621</v>
+        <v>0.00603408832103014</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3904800415039062</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.8818647265434265</v>
       </c>
       <c r="W113" t="n">
-        <v>0.05514032393693924</v>
+        <v>0.2414589077234268</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3906159400939941</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.4754279255867004</v>
       </c>
       <c r="W114" t="n">
-        <v>0.02607962489128113</v>
+        <v>0.007193072699010372</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4446060657501221</v>
       </c>
       <c r="V115" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.4682185649871826</v>
       </c>
       <c r="W115" t="n">
-        <v>0.07871565967798233</v>
+        <v>0.0005575501127168536</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3892958164215088</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.8644596338272095</v>
       </c>
       <c r="W116" t="n">
-        <v>0.005883896257728338</v>
+        <v>0.22578065097332</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3912420272827148</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.9327424764633179</v>
       </c>
       <c r="W117" t="n">
-        <v>0.004113907925784588</v>
+        <v>0.2932227253913879</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.394881010055542</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.8958957195281982</v>
       </c>
       <c r="W118" t="n">
-        <v>0.006405462976545095</v>
+        <v>0.2510157525539398</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3863229751586914</v>
       </c>
       <c r="V119" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.5157635807991028</v>
       </c>
       <c r="W119" t="n">
-        <v>0.1351094841957092</v>
+        <v>0.01675487123429775</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4008159637451172</v>
       </c>
       <c r="V120" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5299514532089233</v>
       </c>
       <c r="W120" t="n">
-        <v>0.04743430390954018</v>
+        <v>0.01667597517371178</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.436133861541748</v>
       </c>
       <c r="V121" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.8657010197639465</v>
       </c>
       <c r="W121" t="n">
-        <v>0.09631479531526566</v>
+        <v>0.1845279484987259</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8765430450439453</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.5131748914718628</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1043267399072647</v>
+        <v>0.132036417722702</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9348001480102539</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.4864742159843445</v>
       </c>
       <c r="W123" t="n">
-        <v>0.09828025847673416</v>
+        <v>0.200996145606041</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8809471130371094</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.4937964081764221</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1790880560874939</v>
+        <v>0.1498856693506241</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9351129531860352</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.9045839309692383</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2490948587656021</v>
+        <v>0.000932021182961762</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.889458179473877</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.9142933487892151</v>
       </c>
       <c r="W126" t="n">
-        <v>0.173483818769455</v>
+        <v>0.0006167856627143919</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8697690963745117</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.4780055284500122</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1022731959819794</v>
+        <v>0.1534786969423294</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8719301223754883</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.4691247940063477</v>
       </c>
       <c r="W128" t="n">
-        <v>0.07136920839548111</v>
+        <v>0.1622521281242371</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9257850646972656</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.47970050573349</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1341387033462524</v>
+        <v>0.1989914327859879</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8736941814422607</v>
       </c>
       <c r="V130" t="n">
-        <v>0.624763011932373</v>
+        <v>0.4869428873062134</v>
       </c>
       <c r="W130" t="n">
-        <v>0.06196672841906548</v>
+        <v>0.1495765596628189</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.864570140838623</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.5319327712059021</v>
       </c>
       <c r="W131" t="n">
-        <v>0.04314295947551727</v>
+        <v>0.1106476187705994</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8708148002624512</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.9387792944908142</v>
       </c>
       <c r="W132" t="n">
-        <v>0.06308590620756149</v>
+        <v>0.004619172308593988</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9535980224609375</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.4703010320663452</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2069792598485947</v>
+        <v>0.2335759848356247</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8762309551239014</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.8817771673202515</v>
       </c>
       <c r="W134" t="n">
-        <v>0.09002343565225601</v>
+        <v>3.076047141803429e-05</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8709797859191895</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.5089036822319031</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1327293515205383</v>
+        <v>0.1310991048812866</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8654229640960693</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.5297836661338806</v>
       </c>
       <c r="W136" t="n">
-        <v>0.160840168595314</v>
+        <v>0.1126537397503853</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9530320167541504</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4969338774681091</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2487658262252808</v>
+        <v>0.2080255150794983</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9058260917663574</v>
       </c>
       <c r="V138" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.9515091776847839</v>
       </c>
       <c r="W138" t="n">
-        <v>0.07948928326368332</v>
+        <v>0.002086944412440062</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8882400989532471</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.5143194198608398</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1843881160020828</v>
+        <v>0.1398166716098785</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8628361225128174</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.5299725532531738</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1537516266107559</v>
+        <v>0.1107981577515602</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.931145191192627</v>
       </c>
       <c r="V141" t="n">
-        <v>0.56879723072052</v>
+        <v>0.9190636873245239</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1312960386276245</v>
+        <v>0.0001459627383155748</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5357050895690918</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.5814443230628967</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01001994032412767</v>
+        <v>0.002092077396810055</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5127849578857422</v>
       </c>
       <c r="V143" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.8814931511878967</v>
       </c>
       <c r="W143" t="n">
-        <v>0.04498101025819778</v>
+        <v>0.135945737361908</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5200159549713135</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.8959580063819885</v>
       </c>
       <c r="W144" t="n">
-        <v>0.009756765328347683</v>
+        <v>0.1413324326276779</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5192179679870605</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.9402390718460083</v>
       </c>
       <c r="W145" t="n">
-        <v>0.001789500587619841</v>
+        <v>0.177258774638176</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5712299346923828</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.5347201228141785</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01290343981236219</v>
+        <v>0.001332966377958655</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.543971061706543</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.5052604079246521</v>
       </c>
       <c r="W147" t="n">
-        <v>0.01278550177812576</v>
+        <v>0.001498514669947326</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5224637985229492</v>
       </c>
       <c r="V148" t="n">
-        <v>0.569115161895752</v>
+        <v>0.4766181111335754</v>
       </c>
       <c r="W148" t="n">
-        <v>0.002176349749788642</v>
+        <v>0.002101826947182417</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5186870098114014</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.5025728344917297</v>
       </c>
       <c r="W149" t="n">
-        <v>0.01120883692055941</v>
+        <v>0.0002596666454337537</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5229678153991699</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.8972840309143066</v>
       </c>
       <c r="W150" t="n">
-        <v>0.004781714174896479</v>
+        <v>0.1401126235723495</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5414509773254395</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.476584255695343</v>
       </c>
       <c r="W151" t="n">
-        <v>0.005669665057212114</v>
+        <v>0.004207691643387079</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5159451961517334</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.5831201672554016</v>
       </c>
       <c r="W152" t="n">
-        <v>0.006352093536406755</v>
+        <v>0.004512476734817028</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5153639316558838</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.875263512134552</v>
       </c>
       <c r="W153" t="n">
-        <v>0.0001362805778626353</v>
+        <v>0.1295277029275894</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5250740051269531</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.9700384140014648</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01050553377717733</v>
+        <v>0.1979933232069016</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5198521614074707</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.477180540561676</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01169923413544893</v>
+        <v>0.001820867182686925</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5200920104980469</v>
       </c>
       <c r="V156" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.5297442674636841</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01689788326621056</v>
+        <v>9.316606156062335e-05</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5439369678497314</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.5299003720283508</v>
       </c>
       <c r="W157" t="n">
-        <v>0.006369668524712324</v>
+        <v>0.0001970260200323537</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5180602073669434</v>
       </c>
       <c r="V158" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.9269011616706848</v>
       </c>
       <c r="W158" t="n">
-        <v>0.04774981364607811</v>
+        <v>0.1671509295701981</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5201480388641357</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.4979893565177917</v>
       </c>
       <c r="W159" t="n">
-        <v>0.001001726719550788</v>
+        <v>0.0004910072311758995</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5098690986633301</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.4693719148635864</v>
       </c>
       <c r="W160" t="n">
-        <v>0.0008113969233818352</v>
+        <v>0.001640021917410195</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5170540809631348</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.4980605840682983</v>
       </c>
       <c r="W161" t="n">
-        <v>0.006566848140209913</v>
+        <v>0.000360752921551466</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.4286761283874512</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.4833563566207886</v>
       </c>
       <c r="W162" t="n">
-        <v>0.003375317435711622</v>
+        <v>0.002989927306771278</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3906779289245605</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.4772542715072632</v>
       </c>
       <c r="W163" t="n">
-        <v>0.02640277147293091</v>
+        <v>0.007495462894439697</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4048030376434326</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.8941449522972107</v>
       </c>
       <c r="W164" t="n">
-        <v>0.02177339047193527</v>
+        <v>0.2394555062055588</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3938980102539062</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.4692888259887695</v>
       </c>
       <c r="W165" t="n">
-        <v>0.02579831704497337</v>
+        <v>0.005683775059878826</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3899369239807129</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.8755039572715759</v>
       </c>
       <c r="W166" t="n">
-        <v>0.01785249449312687</v>
+        <v>0.2357753366231918</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3906540870666504</v>
       </c>
       <c r="V167" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.8989766240119934</v>
       </c>
       <c r="W167" t="n">
-        <v>0.1271153092384338</v>
+        <v>0.258391797542572</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.38991379737854</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.5146046280860901</v>
       </c>
       <c r="W168" t="n">
-        <v>0.002126190112903714</v>
+        <v>0.0155478036031127</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3932590484619141</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.8985369205474854</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0520448125898838</v>
+        <v>0.2553057372570038</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3979380130767822</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.5122097134590149</v>
       </c>
       <c r="W170" t="n">
-        <v>0.02414920926094055</v>
+        <v>0.01305802166461945</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3962500095367432</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.4926868081092834</v>
       </c>
       <c r="W171" t="n">
-        <v>0.08515386283397675</v>
+        <v>0.009300055913627148</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4004569053649902</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.477552592754364</v>
       </c>
       <c r="W172" t="n">
-        <v>0.02182265371084213</v>
+        <v>0.005943744909018278</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4443459510803223</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.4698947072029114</v>
       </c>
       <c r="W173" t="n">
-        <v>0.0008750697015784681</v>
+        <v>0.0006527389632537961</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4053378105163574</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.4692379832267761</v>
       </c>
       <c r="W174" t="n">
-        <v>0.02170649357140064</v>
+        <v>0.004083232022821903</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3984899520874023</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.4795939326286316</v>
       </c>
       <c r="W175" t="n">
-        <v>0.06113077327609062</v>
+        <v>0.006577855441719294</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3937399387359619</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.9528090953826904</v>
       </c>
       <c r="W176" t="n">
-        <v>0.04448452219367027</v>
+        <v>0.3125583231449127</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.409498929977417</v>
       </c>
       <c r="V177" t="n">
-        <v>0.458252340555191</v>
+        <v>0.9199009537696838</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002376894932240248</v>
+        <v>0.2605102360248566</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4042239189147949</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.5831198692321777</v>
       </c>
       <c r="W178" t="n">
-        <v>0.002880307845771313</v>
+        <v>0.03200376033782959</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3954877853393555</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.9468294978141785</v>
       </c>
       <c r="W179" t="n">
-        <v>0.05309172347187996</v>
+        <v>0.3039776980876923</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3989548683166504</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.9528468251228333</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0508754625916481</v>
+        <v>0.3067963123321533</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4435088634490967</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.8601337075233459</v>
       </c>
       <c r="W181" t="n">
-        <v>0.004177672788500786</v>
+        <v>0.1735762655735016</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8759188652038574</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.5319833755493164</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1642282456159592</v>
+        <v>0.1182916238903999</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9079539775848389</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.4834396243095398</v>
       </c>
       <c r="W183" t="n">
-        <v>0.2229753732681274</v>
+        <v>0.1802124381065369</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8769569396972656</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.4770650863647461</v>
       </c>
       <c r="W184" t="n">
-        <v>0.09499415010213852</v>
+        <v>0.159913495182991</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9335319995880127</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.4742114543914795</v>
       </c>
       <c r="W185" t="n">
-        <v>0.2296615839004517</v>
+        <v>0.2109753638505936</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8695228099822998</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.4860691428184509</v>
       </c>
       <c r="W186" t="n">
-        <v>0.06029072403907776</v>
+        <v>0.1470367163419724</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8765580654144287</v>
       </c>
       <c r="V187" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.4840275049209595</v>
       </c>
       <c r="W187" t="n">
-        <v>0.244675412774086</v>
+        <v>0.1540802419185638</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8621768951416016</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.9532089233398438</v>
       </c>
       <c r="W188" t="n">
-        <v>0.05591613799333572</v>
+        <v>0.00828683003783226</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9209358692169189</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.5295578241348267</v>
       </c>
       <c r="W189" t="n">
-        <v>0.2086388021707535</v>
+        <v>0.1531767696142197</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8643569946289062</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.5052034854888916</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1687272936105728</v>
+        <v>0.1289912462234497</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8807570934295654</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.5984096527099609</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1824814230203629</v>
+        <v>0.07972007989883423</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9052441120147705</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.8814589381217957</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1994654983282089</v>
+        <v>0.0005657345172949135</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.923954963684082</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.4930164217948914</v>
       </c>
       <c r="W193" t="n">
-        <v>0.07853883504867554</v>
+        <v>0.1857080310583115</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8688209056854248</v>
       </c>
       <c r="V194" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.497710108757019</v>
       </c>
       <c r="W194" t="n">
-        <v>0.01858616434037685</v>
+        <v>0.1377232223749161</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8627910614013672</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.5299662351608276</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1824744194746017</v>
+        <v>0.1107723638415337</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.858828067779541</v>
       </c>
       <c r="V196" t="n">
-        <v>0.624285101890564</v>
+        <v>0.9591278433799744</v>
       </c>
       <c r="W196" t="n">
-        <v>0.05501040443778038</v>
+        <v>0.01006004493683577</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.92386794090271</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.8811078071594238</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1343199014663696</v>
+        <v>0.001828429056331515</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8679449558258057</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.4864341020584106</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1865565776824951</v>
+        <v>0.1455505341291428</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.866894006729126</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.9018051028251648</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1338625997304916</v>
+        <v>0.001218784600496292</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8593921661376953</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.9495670199394226</v>
       </c>
       <c r="W200" t="n">
-        <v>0.04665222391486168</v>
+        <v>0.008131504058837891</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8721721172332764</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.8670202493667603</v>
       </c>
       <c r="W201" t="n">
-        <v>0.06523796170949936</v>
+        <v>2.654174204508308e-05</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5191779136657715</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.4864527583122253</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01131368335336447</v>
+        <v>0.001070935744792223</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5142409801483154</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.4947965145111084</v>
       </c>
       <c r="W203" t="n">
-        <v>0.005187059752643108</v>
+        <v>0.000378087250282988</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5221579074859619</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.9468318223953247</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01055507641285658</v>
+        <v>0.1803479343652725</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5183939933776855</v>
       </c>
       <c r="V205" t="n">
-        <v>0.390147477388382</v>
+        <v>0.4799888134002686</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0164471697062254</v>
+        <v>0.001474957796745002</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5414669513702393</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.4812154769897461</v>
       </c>
       <c r="W206" t="n">
-        <v>0.004994734656065702</v>
+        <v>0.003630240214988589</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5205578804016113</v>
       </c>
       <c r="V207" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.5083053112030029</v>
       </c>
       <c r="W207" t="n">
-        <v>0.01010774914175272</v>
+        <v>0.0001501254591858014</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5142138004302979</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.4818903803825378</v>
       </c>
       <c r="W208" t="n">
-        <v>0.00346243055537343</v>
+        <v>0.001044803531840444</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.526324987411499</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.5299920439720154</v>
       </c>
       <c r="W209" t="n">
-        <v>0.005068627186119556</v>
+        <v>1.344730389973847e-05</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.518017053604126</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.9512022137641907</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0002096926909871399</v>
+        <v>0.1876493841409683</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5759270191192627</v>
       </c>
       <c r="V211" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.4866273403167725</v>
       </c>
       <c r="W211" t="n">
-        <v>0.0249132439494133</v>
+        <v>0.007974432781338692</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5229740142822266</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.4819275736808777</v>
       </c>
       <c r="W212" t="n">
-        <v>0.007560339290648699</v>
+        <v>0.00168481026776135</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.523759126663208</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.5297694802284241</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01042239274829626</v>
+        <v>3.612435102695599e-05</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5207309722900391</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.5318834781646729</v>
       </c>
       <c r="W214" t="n">
-        <v>0.003942742012441158</v>
+        <v>0.0001243783917743713</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5223240852355957</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.470047652721405</v>
       </c>
       <c r="W215" t="n">
-        <v>0.0003299431409686804</v>
+        <v>0.002732825465500355</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5216178894042969</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.9553003907203674</v>
       </c>
       <c r="W216" t="n">
-        <v>0.009917041286826134</v>
+        <v>0.1880805045366287</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5229220390319824</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.9473350644111633</v>
       </c>
       <c r="W217" t="n">
-        <v>0.003413826460018754</v>
+        <v>0.1801264137029648</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.525583028793335</v>
       </c>
       <c r="V218" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.4922904372215271</v>
       </c>
       <c r="W218" t="n">
-        <v>0.08592990040779114</v>
+        <v>0.001108396681956947</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.520596981048584</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.5299125909805298</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0003550337569322437</v>
+        <v>8.678058657096699e-05</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5256521701812744</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.8705424666404724</v>
       </c>
       <c r="W220" t="n">
-        <v>0.001625979552045465</v>
+        <v>0.1189493164420128</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5186018943786621</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.5050608515739441</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01958641409873962</v>
+        <v>0.0001833598362281919</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4369480609893799</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.5133907198905945</v>
       </c>
       <c r="W222" t="n">
-        <v>0.06142007932066917</v>
+        <v>0.005843480117619038</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3863978385925293</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.4974367022514343</v>
       </c>
       <c r="W223" t="n">
-        <v>0.006396512035280466</v>
+        <v>0.01232962962239981</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3937249183654785</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.4797562956809998</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01158501580357552</v>
+        <v>0.007401397917419672</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3911972045898438</v>
       </c>
       <c r="V225" t="n">
-        <v>0.43533855676651</v>
+        <v>0.5134907960891724</v>
       </c>
       <c r="W225" t="n">
-        <v>0.001948458957485855</v>
+        <v>0.0149557227268815</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3935401439666748</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.4691612720489502</v>
       </c>
       <c r="W226" t="n">
-        <v>0.001814064802601933</v>
+        <v>0.005718554835766554</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3959310054779053</v>
       </c>
       <c r="V227" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.4929670095443726</v>
       </c>
       <c r="W227" t="n">
-        <v>0.176526665687561</v>
+        <v>0.009415986016392708</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4145870208740234</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.479386568069458</v>
       </c>
       <c r="W228" t="n">
-        <v>0.06065540015697479</v>
+        <v>0.004198981449007988</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4043619632720947</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.8890082240104675</v>
       </c>
       <c r="W229" t="n">
-        <v>0.001432423363439739</v>
+        <v>0.2348819971084595</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3962569236755371</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.5547483563423157</v>
       </c>
       <c r="W230" t="n">
-        <v>0.03090495802462101</v>
+        <v>0.02511953376233578</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3960988521575928</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.5130654573440552</v>
       </c>
       <c r="W231" t="n">
-        <v>0.003865160746499896</v>
+        <v>0.01368118636310101</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3987271785736084</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.5347119569778442</v>
       </c>
       <c r="W232" t="n">
-        <v>0.003460161620751023</v>
+        <v>0.01849186047911644</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3986289501190186</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.4928831458091736</v>
       </c>
       <c r="W233" t="n">
-        <v>0.003024836769327521</v>
+        <v>0.008883853442966938</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3996450901031494</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.4994157552719116</v>
       </c>
       <c r="W234" t="n">
-        <v>0.05960080400109291</v>
+        <v>0.009954185225069523</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.407642126083374</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.481831967830658</v>
       </c>
       <c r="W235" t="n">
-        <v>0.004667321685701609</v>
+        <v>0.005504132714122534</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3983259201049805</v>
       </c>
       <c r="V236" t="n">
-        <v>0.436027318239212</v>
+        <v>0.5163643956184387</v>
       </c>
       <c r="W236" t="n">
-        <v>0.001421395456418395</v>
+        <v>0.01393308211117983</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3964540958404541</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.944921612739563</v>
       </c>
       <c r="W237" t="n">
-        <v>0.006252852268517017</v>
+        <v>0.3008166253566742</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3953571319580078</v>
       </c>
       <c r="V238" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.486733615398407</v>
       </c>
       <c r="W238" t="n">
-        <v>0.0002830492157954723</v>
+        <v>0.008349661715328693</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.390984058380127</v>
       </c>
       <c r="V239" t="n">
-        <v>0.812067985534668</v>
+        <v>0.9316319227218628</v>
       </c>
       <c r="W239" t="n">
-        <v>0.1773116737604141</v>
+        <v>0.2923001050949097</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3856360912322998</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.5339527130126953</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0744752511382103</v>
+        <v>0.02199782058596611</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3936669826507568</v>
       </c>
       <c r="V241" t="n">
-        <v>0.471180647611618</v>
+        <v>0.5297771096229553</v>
       </c>
       <c r="W241" t="n">
-        <v>0.006008368451148272</v>
+        <v>0.01852596737444401</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8827300071716309</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.8755902051925659</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1669199168682098</v>
+        <v>5.097677058074623e-05</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8892779350280762</v>
       </c>
       <c r="V243" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.889447033405304</v>
       </c>
       <c r="W243" t="n">
-        <v>0.02418004535138607</v>
+        <v>2.859426118106967e-08</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8665170669555664</v>
       </c>
       <c r="V244" t="n">
-        <v>0.435836523771286</v>
+        <v>0.4813622236251831</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1854857355356216</v>
+        <v>0.1483442485332489</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9148538112640381</v>
       </c>
       <c r="V245" t="n">
-        <v>0.480756551027298</v>
+        <v>0.4838441610336304</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1884404271841049</v>
+        <v>0.1857693195343018</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.893773078918457</v>
       </c>
       <c r="V246" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.4867569804191589</v>
       </c>
       <c r="W246" t="n">
-        <v>0.004989988170564175</v>
+        <v>0.1656621098518372</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8801841735839844</v>
       </c>
       <c r="V247" t="n">
-        <v>0.504918098449707</v>
+        <v>0.4842734336853027</v>
       </c>
       <c r="W247" t="n">
-        <v>0.140824630856514</v>
+        <v>0.1567453145980835</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8691630363464355</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.9241223335266113</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1349984705448151</v>
+        <v>0.003020524280145764</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9303419589996338</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.4867079257965088</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1255010515451431</v>
+        <v>0.1968111544847488</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8699700832366943</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.8812008500099182</v>
       </c>
       <c r="W250" t="n">
-        <v>0.0626969113945961</v>
+        <v>0.0001261301222257316</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8855090141296387</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.4811374545097351</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1823554784059525</v>
+        <v>0.1635163575410843</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8729660511016846</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.4947109222412109</v>
       </c>
       <c r="W252" t="n">
-        <v>0.06473167985677719</v>
+        <v>0.1430769413709641</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.9419221878051758</v>
       </c>
       <c r="V253" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.4812415838241577</v>
       </c>
       <c r="W253" t="n">
-        <v>0.09995327889919281</v>
+        <v>0.212226614356041</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9159348011016846</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.4768573641777039</v>
       </c>
       <c r="W254" t="n">
-        <v>0.07136997580528259</v>
+        <v>0.1927889883518219</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8725790977478027</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.5300818681716919</v>
       </c>
       <c r="W255" t="n">
-        <v>0.09079177677631378</v>
+        <v>0.1173043549060822</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8752100467681885</v>
       </c>
       <c r="V256" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.5822761058807373</v>
       </c>
       <c r="W256" t="n">
-        <v>0.004006016533821821</v>
+        <v>0.08581029623746872</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8813071250915527</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.8877075910568237</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1688412874937057</v>
+        <v>4.096596603631042e-05</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8681139945983887</v>
       </c>
       <c r="V258" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.4834588766098022</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2403788417577744</v>
+        <v>0.1479595601558685</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.877877950668335</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.4821792244911194</v>
       </c>
       <c r="W259" t="n">
-        <v>0.0767146423459053</v>
+        <v>0.1565774828195572</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8620028495788574</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.512350857257843</v>
       </c>
       <c r="W260" t="n">
-        <v>0.05793104320764542</v>
+        <v>0.1222565174102783</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8686950206756592</v>
       </c>
       <c r="V261" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.9098191857337952</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2399537116289139</v>
+        <v>0.001691196928732097</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5413699150085449</v>
       </c>
       <c r="V262" t="n">
-        <v>0.57613205909729</v>
+        <v>0.5125221610069275</v>
       </c>
       <c r="W262" t="n">
-        <v>0.001208406640216708</v>
+        <v>0.0008321928908117115</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5425310134887695</v>
       </c>
       <c r="V263" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.963546097278595</v>
       </c>
       <c r="W263" t="n">
-        <v>0.0133476797491312</v>
+        <v>0.1772536933422089</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.523975133895874</v>
       </c>
       <c r="V264" t="n">
-        <v>0.630542516708374</v>
+        <v>0.8948833346366882</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01135660707950592</v>
+        <v>0.1375728994607925</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5276370048522949</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.5299980044364929</v>
       </c>
       <c r="W265" t="n">
-        <v>0.004783738404512405</v>
+        <v>5.574318947765278e-06</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5303268432617188</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.9267192482948303</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0006920513114891946</v>
+        <v>0.1571269333362579</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5253438949584961</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.4939398169517517</v>
       </c>
       <c r="W267" t="n">
-        <v>8.599170541856438e-05</v>
+        <v>0.0009862161241471767</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5230131149291992</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.8945425748825073</v>
       </c>
       <c r="W268" t="n">
-        <v>0.002193565247580409</v>
+        <v>0.1380341351032257</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5263299942016602</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.9486187696456909</v>
       </c>
       <c r="W269" t="n">
-        <v>0.008320635184645653</v>
+        <v>0.178327813744545</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5215909481048584</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5545951128005981</v>
+        <v>1.066986322402954</v>
       </c>
       <c r="W270" t="n">
-        <v>0.001089274883270264</v>
+        <v>0.2974561154842377</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5684051513671875</v>
       </c>
       <c r="V271" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.4763253927230835</v>
       </c>
       <c r="W271" t="n">
-        <v>0.008427038788795471</v>
+        <v>0.008478681556880474</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5313382148742676</v>
       </c>
       <c r="V272" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4968525767326355</v>
       </c>
       <c r="W272" t="n">
-        <v>0.08131062239408493</v>
+        <v>0.001189259230159223</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5239222049713135</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.8870157599449158</v>
       </c>
       <c r="W273" t="n">
-        <v>0.009047079831361771</v>
+        <v>0.1318369358778</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5281331539154053</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.4870793223381042</v>
       </c>
       <c r="W274" t="n">
-        <v>0.001062160707078874</v>
+        <v>0.001685417140834033</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5204050540924072</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.8808937072753906</v>
       </c>
       <c r="W275" t="n">
-        <v>0.01856088452041149</v>
+        <v>0.129952073097229</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5621039867401123</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.5298835635185242</v>
       </c>
       <c r="W276" t="n">
-        <v>4.325869304011576e-05</v>
+        <v>0.001038155634887516</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5275850296020508</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.9221644997596741</v>
       </c>
       <c r="W277" t="n">
-        <v>0.004802634008228779</v>
+        <v>0.1556929647922516</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5216319561004639</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.512786865234375</v>
       </c>
       <c r="W278" t="n">
-        <v>0.0007852754206396639</v>
+        <v>7.823562918929383e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5257248878479004</v>
       </c>
       <c r="V279" t="n">
-        <v>0.551807165145874</v>
+        <v>0.9283364415168762</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0006802852149121463</v>
+        <v>0.1620960682630539</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5235288143157959</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.9479347467422485</v>
       </c>
       <c r="W280" t="n">
-        <v>0.01011551637202501</v>
+        <v>0.1801203936338425</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5267870426177979</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.893900454044342</v>
       </c>
       <c r="W281" t="n">
-        <v>0.0005062785348854959</v>
+        <v>0.1347722560167313</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4285361766815186</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.4864122867584229</v>
       </c>
       <c r="W282" t="n">
-        <v>0.01450418680906296</v>
+        <v>0.003349644131958485</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4023911952972412</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.9167857766151428</v>
       </c>
       <c r="W283" t="n">
-        <v>0.004100881982594728</v>
+        <v>0.2646017968654633</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4054138660430908</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.4814706444740295</v>
       </c>
       <c r="W284" t="n">
-        <v>0.006567427422851324</v>
+        <v>0.005784633569419384</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4016778469085693</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.4760204553604126</v>
       </c>
       <c r="W285" t="n">
-        <v>0.005330738145858049</v>
+        <v>0.005526823457330465</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4031708240509033</v>
       </c>
       <c r="V286" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.5028766393661499</v>
       </c>
       <c r="W286" t="n">
-        <v>0.06434609740972519</v>
+        <v>0.009941249154508114</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3992259502410889</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.4877449870109558</v>
       </c>
       <c r="W287" t="n">
-        <v>0.001354342908598483</v>
+        <v>0.007835620082914829</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4039618968963623</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.9370930194854736</v>
       </c>
       <c r="W288" t="n">
-        <v>0.02804487571120262</v>
+        <v>0.2842288017272949</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4219129085540771</v>
       </c>
       <c r="V289" t="n">
-        <v>0.551414966583252</v>
+        <v>0.4875144362449646</v>
       </c>
       <c r="W289" t="n">
-        <v>0.01677078381180763</v>
+        <v>0.004303560592234135</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3925161361694336</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.5299473404884338</v>
       </c>
       <c r="W290" t="n">
-        <v>0.004313047975301743</v>
+        <v>0.01888733543455601</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3978149890899658</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.8821840286254883</v>
       </c>
       <c r="W291" t="n">
-        <v>0.05122312903404236</v>
+        <v>0.234613373875618</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.400439977645874</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.9115457534790039</v>
       </c>
       <c r="W292" t="n">
-        <v>0.005033425055444241</v>
+        <v>0.2612291276454926</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.393718957901001</v>
       </c>
       <c r="V293" t="n">
-        <v>0.816550612449646</v>
+        <v>0.9379088878631592</v>
       </c>
       <c r="W293" t="n">
-        <v>0.1787866055965424</v>
+        <v>0.2961426675319672</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4443869590759277</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.8878175020217896</v>
       </c>
       <c r="W294" t="n">
-        <v>0.01751512475311756</v>
+        <v>0.1966306418180466</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3972890377044678</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.598258912563324</v>
       </c>
       <c r="W295" t="n">
-        <v>0.001500446582213044</v>
+        <v>0.04038888961076736</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4022591114044189</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.8952464461326599</v>
       </c>
       <c r="W296" t="n">
-        <v>0.001139333937317133</v>
+        <v>0.2430365085601807</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3985941410064697</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.4862335324287415</v>
       </c>
       <c r="W297" t="n">
-        <v>0.05256330221891403</v>
+        <v>0.007680662907660007</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3993470668792725</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.5812025666236877</v>
       </c>
       <c r="W298" t="n">
-        <v>0.02378225885331631</v>
+        <v>0.03307142108678818</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3984549045562744</v>
       </c>
       <c r="V299" t="n">
-        <v>0.474732518196106</v>
+        <v>0.4769926071166992</v>
       </c>
       <c r="W299" t="n">
-        <v>0.005818274337798357</v>
+        <v>0.00616817083209753</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4491739273071289</v>
       </c>
       <c r="V300" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.9038347005844116</v>
       </c>
       <c r="W300" t="n">
-        <v>0.1398754268884659</v>
+        <v>0.2067164182662964</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4002280235290527</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.9213383197784424</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0659601092338562</v>
+        <v>0.2715559303760529</v>
       </c>
     </row>
     <row r="302" spans="1:23">
